--- a/DOCUMENTOS/Documentación Encapsuladores Sistema de Notas.xlsx
+++ b/DOCUMENTOS/Documentación Encapsuladores Sistema de Notas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cobol\Tarea Colaboratiba\DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CobolLegends\Git-Cobol\MainframeCode-01\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D3D66-2DFB-4AE1-A09C-B82E354523E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF7C27-CBF8-4935-8E84-8191A730E97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIOS" sheetId="10" r:id="rId1"/>
-    <sheet name="PERMISOS" sheetId="6" r:id="rId2"/>
-    <sheet name="PERFILES" sheetId="9" r:id="rId3"/>
+    <sheet name="PERFILES" sheetId="9" r:id="rId2"/>
+    <sheet name="PERMISOS" sheetId="6" r:id="rId3"/>
     <sheet name="CURSOS" sheetId="8" r:id="rId4"/>
     <sheet name="NOTASFIN" sheetId="7" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="191">
   <si>
     <t>tipo</t>
   </si>
@@ -590,55 +590,7 @@
 Por curso y DNI estudiante</t>
   </si>
   <si>
-    <t>Encapsulador tabla USUARIOS</t>
-  </si>
-  <si>
-    <t>US-DNI</t>
-  </si>
-  <si>
-    <t>US-TIPOUSUA</t>
-  </si>
-  <si>
-    <t>TIPOUSUA</t>
-  </si>
-  <si>
-    <t>US-CLAVE</t>
-  </si>
-  <si>
-    <t>CLAVE</t>
-  </si>
-  <si>
-    <t>US-NOMBRE</t>
-  </si>
-  <si>
-    <t>US-APELLIDOS</t>
-  </si>
-  <si>
-    <t>APELLIDOS</t>
-  </si>
-  <si>
-    <t>US-DIRECCION</t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>US-CARGO</t>
-  </si>
-  <si>
-    <t>CARGO</t>
-  </si>
-  <si>
-    <t>US-ESTADO</t>
-  </si>
-  <si>
-    <t>LK-TIPO-OPE</t>
-  </si>
-  <si>
-    <t>LK-SUBTIPO-OPE</t>
-  </si>
-  <si>
-    <t>WS-COD-RET</t>
+    <t>LK-NT-INDICE</t>
   </si>
   <si>
     <r>
@@ -655,6 +607,57 @@
       </rPr>
       <t>5</t>
     </r>
+  </si>
+  <si>
+    <t>Encapsulador tabla USUARIOS</t>
+  </si>
+  <si>
+    <t>US-DNI</t>
+  </si>
+  <si>
+    <t>US-TIPOUSUA</t>
+  </si>
+  <si>
+    <t>TIPOUSUA</t>
+  </si>
+  <si>
+    <t>US-CLAVE</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>US-NOMBRE</t>
+  </si>
+  <si>
+    <t>US-APELLIDOS</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>US-DIRECCION</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>US-CARGO</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>US-ESTADO</t>
+  </si>
+  <si>
+    <t>LK-TIPO-OPE</t>
+  </si>
+  <si>
+    <t>LK-SUBTIPO-OPE</t>
+  </si>
+  <si>
+    <t>WS-COD-RET</t>
   </si>
   <si>
     <r>
@@ -772,15 +775,6 @@
     <t>PKNOTAS</t>
   </si>
   <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
     <t>Bind Package</t>
   </si>
   <si>
@@ -797,6 +791,27 @@
   </si>
   <si>
     <t>RSNUSUAR</t>
+  </si>
+  <si>
+    <t>BPKSNPRF</t>
+  </si>
+  <si>
+    <t>RSNPERFI</t>
+  </si>
+  <si>
+    <t>RSNPERMI</t>
+  </si>
+  <si>
+    <t>BPKSNCUR</t>
+  </si>
+  <si>
+    <t>RSNCURSO</t>
+  </si>
+  <si>
+    <t>RSNNOFIN</t>
+  </si>
+  <si>
+    <t>BPKSNNOT</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1740,6 +1755,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1752,137 +1786,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1938,12 +1846,141 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1989,7 +2026,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9B9862-A763-4C67-80CD-DFCE89E42580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941B5D60-78E8-49E9-A1A2-5C8476F77BCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,8 +2042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3876675" y="403743"/>
-          <a:ext cx="6184900" cy="2380732"/>
+          <a:off x="4113439" y="398300"/>
+          <a:ext cx="6578147" cy="2314057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,6 +2061,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5146969" cy="1912881"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C4DA23-B872-45BE-AD2D-1996CF5FAC5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4156982" y="602796"/>
+          <a:ext cx="5146969" cy="1912881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2147,55 +2233,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5146969" cy="1912881"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C4DA23-B872-45BE-AD2D-1996CF5FAC5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4156982" y="602796"/>
-          <a:ext cx="5146969" cy="1912881"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2248,16 +2285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>220982</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148461</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284216</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2280,8 +2317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5507357" y="889635"/>
-          <a:ext cx="3979544" cy="2125851"/>
+          <a:off x="6530341" y="830581"/>
+          <a:ext cx="4559035" cy="2019299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,9 +2331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2334,9 +2371,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2369,26 +2406,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2421,26 +2441,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2613,42 +2616,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA516DE-BA29-4D1D-8109-95DFA3585509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0942284B-7FB3-417F-AFD7-D97CE164B6FC}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
-    </row>
-    <row r="3" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="118"/>
+    </row>
+    <row r="3" spans="1:13" ht="37" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
@@ -2662,9 +2665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -2676,12 +2679,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -2690,12 +2693,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -2704,9 +2707,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>88</v>
@@ -2718,12 +2721,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -2732,12 +2735,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -2746,12 +2749,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -2760,9 +2763,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>62</v>
@@ -2774,34 +2777,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="129" t="s">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="130"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="120"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="91"/>
       <c r="F14" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>12</v>
@@ -2815,24 +2818,24 @@
       <c r="J14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>1</v>
       </c>
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="86"/>
+      <c r="C15" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="93"/>
       <c r="F15" s="15">
         <v>0</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>14</v>
@@ -2855,17 +2858,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>1</v>
       </c>
       <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="86"/>
+      <c r="C16" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="93"/>
       <c r="F16" s="10">
         <v>1</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>18</v>
@@ -2882,23 +2885,23 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="98">
         <v>2</v>
       </c>
-      <c r="B17" s="133">
+      <c r="B17" s="98">
         <v>1</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="93"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -2921,68 +2924,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="133">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="98">
         <v>3</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="98">
         <v>1</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="93"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13">
         <v>4</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="136"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="96" t="s">
+      <c r="D19" s="101"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="96" t="s">
+      <c r="C21" s="124"/>
+      <c r="D21" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98" t="s">
+      <c r="E21" s="124"/>
+      <c r="F21" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100" t="s">
+      <c r="I21" s="126"/>
+      <c r="J21" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="89" t="s">
+      <c r="K21" s="128"/>
+      <c r="L21" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="90"/>
-    </row>
-    <row r="22" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
+      <c r="M21" s="130"/>
+    </row>
+    <row r="22" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="122"/>
       <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
@@ -3020,9 +3023,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" s="16">
         <v>1</v>
@@ -3036,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="55"/>
-      <c r="H23" s="137">
+      <c r="H23" s="102">
         <v>2</v>
       </c>
       <c r="I23" s="55"/>
@@ -3047,40 +3050,40 @@
       <c r="L23" s="56">
         <v>4</v>
       </c>
-      <c r="M23" s="138"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="140">
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="105">
         <v>1</v>
       </c>
       <c r="C24" s="62"/>
-      <c r="D24" s="140">
+      <c r="D24" s="105">
         <v>2</v>
       </c>
       <c r="E24" s="62"/>
-      <c r="F24" s="140">
+      <c r="F24" s="105">
         <v>3</v>
       </c>
       <c r="G24" s="62"/>
-      <c r="H24" s="140">
+      <c r="H24" s="105">
         <v>1</v>
       </c>
       <c r="I24" s="62"/>
-      <c r="J24" s="140">
+      <c r="J24" s="105">
         <v>1</v>
       </c>
       <c r="K24" s="62"/>
-      <c r="L24" s="140">
+      <c r="L24" s="105">
         <v>1</v>
       </c>
       <c r="M24" s="62"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="141" t="s">
-        <v>163</v>
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="106" t="s">
+        <v>164</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>8</v>
@@ -3107,9 +3110,9 @@
       </c>
       <c r="M25" s="65"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="68"/>
       <c r="C26" s="67" t="s">
@@ -3134,9 +3137,9 @@
       </c>
       <c r="M26" s="67"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" s="68"/>
       <c r="C27" s="67" t="s">
@@ -3161,9 +3164,9 @@
       </c>
       <c r="M27" s="67"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="67" t="s">
@@ -3188,9 +3191,9 @@
       </c>
       <c r="M28" s="67"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="68"/>
       <c r="C29" s="67" t="s">
@@ -3215,9 +3218,9 @@
       </c>
       <c r="M29" s="67"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B30" s="68"/>
       <c r="C30" s="67" t="s">
@@ -3242,9 +3245,9 @@
       </c>
       <c r="M30" s="67"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31" s="68"/>
       <c r="C31" s="67" t="s">
@@ -3269,48 +3272,48 @@
       </c>
       <c r="M31" s="67"/>
     </row>
-    <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="143"/>
-      <c r="G32" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="144"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="144"/>
-    </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="146" t="s">
+    <row r="32" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="107" t="s">
         <v>171</v>
+      </c>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="109"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="109"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="111" t="s">
+        <v>172</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="51" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="50"/>
-      <c r="E33" s="147" t="s">
-        <v>172</v>
+      <c r="E33" s="112" t="s">
+        <v>173</v>
       </c>
       <c r="F33" s="50"/>
-      <c r="G33" s="148" t="s">
-        <v>173</v>
+      <c r="G33" s="113" t="s">
+        <v>174</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="77" t="s">
@@ -3325,82 +3328,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="150"/>
-      <c r="C34" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="150"/>
-      <c r="E34" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="150"/>
-      <c r="G34" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="150"/>
-      <c r="I34" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="150"/>
-      <c r="K34" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="150"/>
-      <c r="M34" s="144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="115"/>
+      <c r="C34" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="115"/>
+      <c r="G34" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="115"/>
+      <c r="I34" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="115"/>
+      <c r="K34" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="115"/>
+      <c r="M34" s="109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A36" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F36" t="s">
+      <c r="B37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="B37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>182</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3422,38 +3425,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138EF39D-ECA8-4035-B172-A6F016DBCA6F}">
+  <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
@@ -3467,7 +3469,599 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="134"/>
+      <c r="F13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="138"/>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="132"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="130"/>
+    </row>
+    <row r="20" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="122"/>
+      <c r="C20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38">
+        <v>2</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="39">
+        <v>3</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40">
+        <v>4</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+    </row>
+    <row r="3" spans="2:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
@@ -3481,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3495,7 +4089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3509,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3523,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -3537,7 +4131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3551,26 +4145,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="6"/>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="2:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="103"/>
+      <c r="D13" s="134"/>
       <c r="F13" s="20" t="s">
         <v>101</v>
       </c>
@@ -3587,14 +4181,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>1</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="136"/>
       <c r="F14" s="15">
         <v>0</v>
       </c>
@@ -3611,14 +4205,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="138"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
@@ -3635,14 +4229,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="138"/>
       <c r="F16" s="11">
         <v>2</v>
       </c>
@@ -3660,14 +4254,14 @@
       </c>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="88"/>
+      <c r="D17" s="132"/>
       <c r="F17" s="10">
         <v>9</v>
       </c>
@@ -3678,30 +4272,30 @@
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98" t="s">
+      <c r="D19" s="124"/>
+      <c r="E19" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100" t="s">
+      <c r="F19" s="126"/>
+      <c r="G19" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="89" t="s">
+      <c r="H19" s="128"/>
+      <c r="I19" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="90"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="95"/>
+      <c r="J19" s="130"/>
+    </row>
+    <row r="20" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="122"/>
       <c r="C20" s="33" t="s">
         <v>23</v>
       </c>
@@ -3727,7 +4321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="35" t="s">
         <v>104</v>
       </c>
@@ -3748,7 +4342,7 @@
       </c>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
@@ -3763,7 +4357,7 @@
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
@@ -3784,7 +4378,7 @@
       </c>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3805,7 +4399,7 @@
       </c>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3824,7 +4418,7 @@
       </c>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -3843,7 +4437,7 @@
       </c>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3862,7 +4456,7 @@
       </c>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3881,7 +4475,7 @@
       </c>
       <c r="J28" s="41"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B29" s="43" t="s">
         <v>101</v>
       </c>
@@ -3902,7 +4496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>102</v>
       </c>
@@ -3923,18 +4517,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="2:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="28"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>48</v>
       </c>
@@ -3942,7 +4536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="28" t="s">
         <v>49</v>
       </c>
@@ -3950,12 +4544,28 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3979,38 +4589,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138EF39D-ECA8-4035-B172-A6F016DBCA6F}">
-  <dimension ref="B1:N32"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C4EA89-957C-49BB-8C06-B947F054B7D8}">
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
@@ -4024,117 +4634,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="102" t="s">
+    <row r="13" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="103"/>
+      <c r="D13" s="134"/>
       <c r="F13" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>12</v>
@@ -4149,14 +4726,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>1</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="136"/>
       <c r="F14" s="15">
         <v>0</v>
       </c>
@@ -4173,14 +4750,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="107"/>
+      <c r="C15" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="138"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
@@ -4197,14 +4774,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="138"/>
       <c r="F16" s="11">
         <v>2</v>
       </c>
@@ -4222,189 +4799,151 @@
       </c>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="88"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="D17" s="132"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:10" ht="28.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98" t="s">
+      <c r="C21" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="130"/>
+    </row>
+    <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="144"/>
+      <c r="C22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38">
+        <v>2</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="39">
+        <v>3</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40">
         <v>4</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="90"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="95"/>
-      <c r="C20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="36">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38">
-        <v>2</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="39">
-        <v>3</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40">
-        <v>4</v>
-      </c>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="41" t="s">
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>8</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="41" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41" t="s">
-        <v>8</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="41"/>
       <c r="E25" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="G25" s="41" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="41"/>
       <c r="I25" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41" t="s">
-        <v>8</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="41"/>
       <c r="E26" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="G26" s="41" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="41" t="s">
@@ -4414,111 +4953,124 @@
         <v>8</v>
       </c>
       <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="41"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I27" s="41"/>
+      <c r="J27" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="41" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
+        <v>71</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="I29" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B30" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="J29" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="41" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="28" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -4530,38 +5082,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C4EA89-957C-49BB-8C06-B947F054B7D8}">
-  <dimension ref="A1:N31"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03757A15-FD60-434C-BE9C-C7126691063B}">
+  <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
@@ -4575,9 +5130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
@@ -4589,70 +5144,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="103"/>
+      <c r="D13" s="134"/>
       <c r="F13" s="20" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>12</v>
@@ -4667,14 +5222,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>1</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="136"/>
       <c r="F14" s="15">
         <v>0</v>
       </c>
@@ -4691,14 +5246,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="107"/>
+      <c r="C15" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="138"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
@@ -4715,14 +5270,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="138"/>
       <c r="F16" s="11">
         <v>2</v>
       </c>
@@ -4740,492 +5295,43 @@
       </c>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="88"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:10" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="90"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="112"/>
-      <c r="C22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="36">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38">
-        <v>2</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="39">
-        <v>3</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40">
-        <v>4</v>
-      </c>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="41"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="41"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B28" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03757A15-FD60-434C-BE9C-C7126691063B}">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="103"/>
-      <c r="F13" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>2</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="107"/>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
-        <v>3</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="107"/>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
-        <v>4</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="88"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:10" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="D17" s="132"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="125" t="s">
+      <c r="D19" s="124"/>
+      <c r="E19" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="126" t="s">
+      <c r="F19" s="126"/>
+      <c r="G19" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="115" t="s">
+      <c r="H19" s="128"/>
+      <c r="I19" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="116"/>
-    </row>
-    <row r="20" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="117"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="147"/>
+    </row>
+    <row r="20" spans="2:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="151"/>
       <c r="C20" s="47" t="s">
         <v>23</v>
       </c>
@@ -5250,8 +5356,14 @@
       <c r="J20" s="48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="29" t="s">
         <v>118</v>
       </c>
@@ -5271,8 +5383,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="55"/>
-    </row>
-    <row r="22" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="88">
+        <v>1</v>
+      </c>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="57" t="s">
         <v>126</v>
       </c>
@@ -5292,8 +5408,12 @@
         <v>4</v>
       </c>
       <c r="J22" s="62"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K22" s="89">
+        <v>5</v>
+      </c>
+      <c r="L22" s="62"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="63" t="s">
         <v>127</v>
       </c>
@@ -5313,8 +5433,14 @@
         <v>71</v>
       </c>
       <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K23" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="63" t="s">
         <v>128</v>
       </c>
@@ -5333,11 +5459,15 @@
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="66" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J24" s="67"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K24" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="67"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
         <v>129</v>
       </c>
@@ -5357,8 +5487,14 @@
         <v>71</v>
       </c>
       <c r="J25" s="67"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K25" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="63" t="s">
         <v>130</v>
       </c>
@@ -5378,8 +5514,14 @@
         <v>71</v>
       </c>
       <c r="J26" s="67"/>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="63" t="s">
         <v>131</v>
       </c>
@@ -5396,207 +5538,219 @@
       <c r="I27" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="56" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="49" t="s">
+      <c r="K27" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="85"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="52" t="s">
+      <c r="E29" s="50"/>
+      <c r="F29" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="19" t="s">
+      <c r="G29" s="50"/>
+      <c r="H29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="53" t="s">
+      <c r="I29" s="50"/>
+      <c r="J29" s="53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
+      <c r="K29" s="50"/>
+      <c r="L29" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="66" t="s">
+      <c r="C30" s="68"/>
+      <c r="D30" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="66" t="s">
+      <c r="F30" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J30" s="67" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:10" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="94" t="s">
+      <c r="K30" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="2:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C33" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="120" t="s">
+      <c r="D33" s="147"/>
+      <c r="E33" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122" t="s">
+      <c r="F33" s="157"/>
+      <c r="G33" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="122" t="s">
+      <c r="H33" s="159"/>
+      <c r="I33" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="123"/>
-    </row>
-    <row r="33" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="117"/>
-      <c r="C33" s="47" t="s">
+      <c r="J33" s="159"/>
+    </row>
+    <row r="34" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="151"/>
+      <c r="C34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D34" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F34" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H34" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J34" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+    <row r="35" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C35" s="73">
         <v>1</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="70">
+      <c r="D35" s="55"/>
+      <c r="E35" s="70">
         <v>1</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="71">
+      <c r="F35" s="55"/>
+      <c r="G35" s="71">
         <v>1</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="71">
+      <c r="H35" s="55"/>
+      <c r="I35" s="71">
         <v>1</v>
       </c>
-      <c r="J34" s="55"/>
-    </row>
-    <row r="35" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C36" s="74">
         <v>7</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="75">
-        <v>8</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="71" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="75">
+        <v>8</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="G36" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="62"/>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="63" t="s">
+      <c r="H36" s="60"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="62"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="64" t="s">
+      <c r="C37" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="65"/>
-    </row>
-    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="63" t="s">
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="66" t="s">
+      <c r="C38" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="67"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="68"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="67"/>
       <c r="I38" s="66" t="s">
         <v>71</v>
       </c>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="67" t="s">
@@ -5615,18 +5769,20 @@
       </c>
       <c r="J39" s="67"/>
     </row>
-    <row r="40" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B40" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="67" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E40" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="67"/>
+      <c r="F40" s="67" t="s">
+        <v>8</v>
+      </c>
       <c r="G40" s="68"/>
       <c r="H40" s="67"/>
       <c r="I40" s="66" t="s">
@@ -5634,173 +5790,177 @@
       </c>
       <c r="J40" s="67"/>
     </row>
-    <row r="41" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+    <row r="41" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="67"/>
+    </row>
+    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="69" t="s">
+      <c r="C42" s="50"/>
+      <c r="D42" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="70" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="71" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="72" t="s">
+      <c r="I42" s="50"/>
+      <c r="J42" s="72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="63" t="s">
+    <row r="43" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="66" t="s">
+      <c r="C43" s="68"/>
+      <c r="D43" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="66" t="s">
+      <c r="F43" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="68"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="67"/>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="111" t="s">
+      <c r="J43" s="67"/>
+    </row>
+    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C47" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="100" t="s">
+      <c r="D47" s="126"/>
+      <c r="E47" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="101"/>
-      <c r="G46" s="89" t="s">
+      <c r="F47" s="128"/>
+      <c r="G47" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="90"/>
-    </row>
-    <row r="47" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="124"/>
-      <c r="C47" s="47" t="s">
+      <c r="H47" s="130"/>
+    </row>
+    <row r="48" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="150"/>
+      <c r="C48" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D48" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E48" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F48" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G48" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H48" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="57" t="s">
+    <row r="49" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="79">
+      <c r="C49" s="79">
         <v>2</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="80">
+      <c r="D49" s="62"/>
+      <c r="E49" s="80">
         <v>3</v>
       </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="61">
+      <c r="F49" s="55"/>
+      <c r="G49" s="61">
         <v>4</v>
       </c>
-      <c r="H48" s="62"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57" t="s">
+      <c r="H49" s="62"/>
+    </row>
+    <row r="50" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C50" s="17">
         <v>0</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="19">
+      <c r="D50" s="55"/>
+      <c r="E50" s="19">
         <v>0</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="56">
+      <c r="F50" s="60"/>
+      <c r="G50" s="56">
         <v>0</v>
       </c>
-      <c r="H49" s="55"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="63" t="s">
+      <c r="H50" s="55"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="63" t="s">
+      <c r="C51" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="65"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="67"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="63" t="s">
+      <c r="C52" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="63" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="63" t="s">
-        <v>130</v>
       </c>
       <c r="C53" s="67" t="s">
         <v>8</v>
@@ -5813,9 +5973,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B54" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="67" t="s">
         <v>8</v>
@@ -5828,77 +5988,133 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="49" t="s">
+    <row r="55" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="77" t="s">
+      <c r="C56" s="50"/>
+      <c r="D56" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="78" t="s">
+      <c r="E56" s="50"/>
+      <c r="F56" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="53" t="s">
+      <c r="G56" s="50"/>
+      <c r="H56" s="53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="81" t="s">
+    <row r="57" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="82" t="s">
+      <c r="C57" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82" t="s">
+      <c r="E57" s="82"/>
+      <c r="F57" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="82" t="s">
+      <c r="G57" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="82" t="s">
+      <c r="H57" s="82" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>78</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>71</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
+  <mergeCells count="21">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
